--- a/docentes/Castro Vasquez Julieta - Estadisticos 2020.xlsx
+++ b/docentes/Castro Vasquez Julieta - Estadisticos 2020.xlsx
@@ -895,7 +895,7 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -918,7 +918,7 @@
         <v>11</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -941,7 +941,7 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -964,7 +964,7 @@
         <v>11</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -987,7 +987,7 @@
         <v>11</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1010,7 +1010,7 @@
         <v>11</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1033,7 +1033,7 @@
         <v>11</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Castro Vasquez Julieta - Estadisticos 2020.xlsx
+++ b/docentes/Castro Vasquez Julieta - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
   <si>
     <t>Mat</t>
   </si>
@@ -77,63 +77,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>ARROYO</t>
-  </si>
-  <si>
-    <t>BAUTISTA</t>
-  </si>
-  <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>RICO</t>
-  </si>
-  <si>
-    <t>NAMORADO</t>
-  </si>
-  <si>
-    <t>OJEDA</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>NOMTALVO</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>TINOCO</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>VICTOR HUGO</t>
-  </si>
-  <si>
-    <t>DINA BERENICE</t>
-  </si>
-  <si>
-    <t>ANGELES NAHOMI</t>
-  </si>
-  <si>
-    <t>EDGAR RAMSES</t>
-  </si>
-  <si>
-    <t>LUZ ESTRELLA</t>
-  </si>
-  <si>
-    <t>PAOLA GONETSY</t>
-  </si>
-  <si>
-    <t>JAROMI YAJAIRA</t>
   </si>
 </sst>
 </file>
@@ -842,7 +785,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -875,167 +818,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>20330051920157</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>20330051920158</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>20330051920162</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>20330051920373</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>20330051920174</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>20330051920176</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>20330051920180</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Castro Vasquez Julieta - Estadisticos 2020.xlsx
+++ b/docentes/Castro Vasquez Julieta - Estadisticos 2020.xlsx
@@ -480,19 +480,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G2">
-        <v>69.23</v>
+        <v>74.36</v>
       </c>
       <c r="H2">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -506,19 +506,19 @@
         <v>24</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3">
-        <v>87.5</v>
+        <v>95.83</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -532,10 +532,10 @@
         <v>34</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>5</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
       </c>
       <c r="F4">
         <v>29</v>
@@ -544,7 +544,7 @@
         <v>85.29000000000001</v>
       </c>
       <c r="H4">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
     </row>
   </sheetData>
@@ -600,16 +600,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>56.41</v>
+      </c>
+      <c r="H2">
+        <v>6.7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -623,16 +626,19 @@
         <v>24</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>91.67</v>
+      </c>
+      <c r="H3">
+        <v>8.6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -646,16 +652,19 @@
         <v>34</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>82.34999999999999</v>
+      </c>
+      <c r="H4">
+        <v>8.1</v>
       </c>
     </row>
   </sheetData>
@@ -711,19 +720,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>69.23</v>
+        <v>56.41</v>
       </c>
       <c r="H2">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -737,19 +746,19 @@
         <v>24</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>87.5</v>
+        <v>91.67</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -763,19 +772,19 @@
         <v>34</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4">
-        <v>85.29000000000001</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="H4">
-        <v>8.6</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Castro Vasquez Julieta - Estadisticos 2020.xlsx
+++ b/docentes/Castro Vasquez Julieta - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
   <si>
     <t>Mat</t>
   </si>
@@ -77,6 +77,24 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>QUIRIZ</t>
+  </si>
+  <si>
+    <t>RICO</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>BAUTISTA</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>EDGAR RAMSES</t>
   </si>
 </sst>
 </file>
@@ -480,10 +498,10 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>29</v>
@@ -600,10 +618,10 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2">
         <v>22</v>
@@ -720,10 +738,10 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2">
         <v>22</v>
@@ -794,7 +812,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -827,6 +845,52 @@
         <v>19</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920178</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>20330051920373</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
